--- a/SBNY.xlsx
+++ b/SBNY.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74674FAD-4524-4751-A56F-D232067C428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869342D4-1029-40FD-9C19-0B1C852660CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21495" yWindow="0" windowWidth="29280" windowHeight="20850" xr2:uid="{78793E94-F428-496E-BD48-4224EFB82AEB}"/>
+    <workbookView xWindow="25110" yWindow="0" windowWidth="25875" windowHeight="20685" activeTab="1" xr2:uid="{78793E94-F428-496E-BD48-4224EFB82AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -57,14 +58,102 @@
   </si>
   <si>
     <t>Q422</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>AFS</t>
+  </si>
+  <si>
+    <t>HTM</t>
+  </si>
+  <si>
+    <t>FHLB stock</t>
+  </si>
+  <si>
+    <t>Loans HFS</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Accrued Interest</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>FHLB</t>
+  </si>
+  <si>
+    <t>Repo</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>RUN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -91,19 +180,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D49583E5-7065-44B1-B28D-1DF240ABEDD0}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,6 +212,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70D43E9-92EE-33C4-2C1A-D4AD0428167A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6221186" y="32657"/>
+          <a:ext cx="0" cy="5622472"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B12779-8A0C-4C7B-A1F2-1F4BED3AB0BA}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -469,4 +623,274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDE6C64-BB47-41BE-AFB2-91F39D6F9D88}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5874.527</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3</f>
+        <v>5874.527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
+        <v>80.116</v>
+      </c>
+      <c r="K4" s="2">
+        <f>J4</f>
+        <v>80.116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>18594.056</v>
+      </c>
+      <c r="K5" s="2">
+        <f>J5*0.95</f>
+        <v>17664.353200000001</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7780.3739999999998</v>
+      </c>
+      <c r="K6" s="2">
+        <f>J6*0.8</f>
+        <v>6224.2992000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4">
+        <v>560.34299999999996</v>
+      </c>
+      <c r="K7" s="2">
+        <f>J7</f>
+        <v>560.34299999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4">
+        <v>586.452</v>
+      </c>
+      <c r="K8" s="2">
+        <f>J8*0.9</f>
+        <v>527.80680000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4">
+        <v>73802.542000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4">
+        <v>117.229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4">
+        <v>249.26900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4">
+        <v>449.815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2268.9279999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4">
+        <f>SUM(J3:J13)</f>
+        <v>110363.65100000001</v>
+      </c>
+      <c r="K14" s="7">
+        <f>SUM(K3:K8)</f>
+        <v>30931.445200000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="5">
+        <v>88589.726999999999</v>
+      </c>
+      <c r="K16" s="2">
+        <f>J16</f>
+        <v>88589.726999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2">
+        <f>J17</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="5">
+        <v>11283.737999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <f>J18</f>
+        <v>11283.737999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>571.63499999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <f>J19</f>
+        <v>571.63499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="4">
+        <v>281.57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1473.88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="4">
+        <f>SUM(J16:J21)</f>
+        <v>102350.55</v>
+      </c>
+      <c r="K22" s="5">
+        <f>SUM(K16:K21)</f>
+        <v>100595.09999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="4">
+        <f>J14-J22</f>
+        <v>8013.1010000000097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>